--- a/110_Analyses_Données/Ex_8.xlsx
+++ b/110_Analyses_Données/Ex_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\110_Analyses_Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C52D15-C29B-42CC-8552-ABBC327876C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF2A3C-11CA-4B5D-9A15-12126157048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +144,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Helvetica 55 Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -277,15 +285,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,6 +407,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Données!$G$2:$G$557</c:f>
@@ -4039,6 +4091,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Données!$G$2:$G$557</c:f>
@@ -7673,6 +7767,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Données!$G$2:$G$557</c:f>
@@ -11307,6 +11443,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Données!$G$2:$G$557</c:f>
@@ -14941,6 +15119,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Données!$H$2:$H$557</c:f>
@@ -18575,6 +18795,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Données!$H$2:$H$557</c:f>
@@ -22209,6 +22485,34 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Données!$H$2:$H$557</c:f>
@@ -30195,12 +30499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="48" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -30281,14 +30586,14 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="14">
         <f>CORREL(G2:G557,H2:H557)</f>
         <v>0.85482646043612709</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -30329,9 +30634,8 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
@@ -30370,9 +30674,8 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
@@ -30411,9 +30714,8 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
@@ -30452,9 +30754,8 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
@@ -30493,9 +30794,8 @@
       <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
@@ -30534,9 +30834,8 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
@@ -30575,9 +30874,8 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
@@ -30616,9 +30914,8 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
@@ -30657,9 +30954,8 @@
       <c r="L11" s="1">
         <v>7</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
@@ -30698,9 +30994,8 @@
       <c r="L12" s="1">
         <v>42</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
@@ -30739,9 +31034,8 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
@@ -30780,9 +31074,8 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
@@ -30821,9 +31114,9 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
@@ -30862,14 +31155,14 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="14">
         <f>CORREL(G2:G557,I2:I557)</f>
         <v>6.6083899815531519E-2</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -30910,9 +31203,8 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
@@ -30951,9 +31243,8 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
@@ -30992,9 +31283,8 @@
       <c r="L19" s="1">
         <v>33</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
@@ -31033,9 +31323,8 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
@@ -31074,9 +31363,8 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
@@ -31115,9 +31403,8 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
+      <c r="M22" s="5"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
@@ -31156,9 +31443,8 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
+      <c r="M23" s="5"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
@@ -31197,9 +31483,8 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
+      <c r="M24" s="5"/>
+      <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
@@ -31238,9 +31523,8 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="10"/>
+      <c r="M25" s="5"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
@@ -31279,9 +31563,8 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
+      <c r="M26" s="5"/>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
@@ -31320,9 +31603,8 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="10"/>
+      <c r="M27" s="5"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
@@ -31361,9 +31643,8 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
+      <c r="M28" s="5"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
@@ -31402,9 +31683,8 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
+      <c r="M29" s="5"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
@@ -31443,9 +31723,9 @@
       <c r="L30" s="1">
         <v>30</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="13"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2">
@@ -31484,14 +31764,14 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="14">
         <f>CORREL(G2:G557,K2:K557)</f>
         <v>0.18339606616625098</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -31532,9 +31812,8 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
+      <c r="M32" s="5"/>
+      <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2">
@@ -31573,9 +31852,8 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="10"/>
+      <c r="M33" s="5"/>
+      <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2">
@@ -31614,9 +31892,8 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="10"/>
+      <c r="M34" s="5"/>
+      <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2">
@@ -31655,9 +31932,8 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
+      <c r="M35" s="5"/>
+      <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2">
@@ -31696,9 +31972,8 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="10"/>
+      <c r="M36" s="5"/>
+      <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2">
@@ -31737,9 +32012,8 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="10"/>
+      <c r="M37" s="5"/>
+      <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2">
@@ -31778,9 +32052,8 @@
       <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
+      <c r="M38" s="5"/>
+      <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2">
@@ -31819,9 +32092,8 @@
       <c r="L39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="10"/>
+      <c r="M39" s="5"/>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2">
@@ -31860,9 +32132,8 @@
       <c r="L40" s="1">
         <v>0</v>
       </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="10"/>
+      <c r="M40" s="5"/>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2">
@@ -31901,9 +32172,8 @@
       <c r="L41" s="1">
         <v>0</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="10"/>
+      <c r="M41" s="5"/>
+      <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2">
@@ -31942,9 +32212,8 @@
       <c r="L42" s="1">
         <v>122</v>
       </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="10"/>
+      <c r="M42" s="5"/>
+      <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2">
@@ -31983,9 +32252,8 @@
       <c r="L43" s="1">
         <v>0</v>
       </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="10"/>
+      <c r="M43" s="5"/>
+      <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2">
@@ -32024,9 +32292,8 @@
       <c r="L44" s="1">
         <v>49</v>
       </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="10"/>
+      <c r="M44" s="5"/>
+      <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2">
@@ -32065,9 +32332,9 @@
       <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="13"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="9"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2">
@@ -32106,14 +32373,14 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="14">
         <f>CORREL(G2:G557,L2:L557)</f>
         <v>-3.2620711419287449E-2</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -32154,9 +32421,8 @@
       <c r="L47" s="1">
         <v>0</v>
       </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="10"/>
+      <c r="M47" s="5"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2">
@@ -32195,9 +32461,8 @@
       <c r="L48" s="1">
         <v>0</v>
       </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="10"/>
+      <c r="M48" s="5"/>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2">
@@ -32236,9 +32501,8 @@
       <c r="L49" s="1">
         <v>0</v>
       </c>
-      <c r="M49" s="8"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="10"/>
+      <c r="M49" s="5"/>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2">
@@ -32277,9 +32541,8 @@
       <c r="L50" s="1">
         <v>0</v>
       </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="10"/>
+      <c r="M50" s="5"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2">
@@ -32318,9 +32581,8 @@
       <c r="L51" s="1">
         <v>0</v>
       </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="10"/>
+      <c r="M51" s="5"/>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2">
@@ -32359,9 +32621,8 @@
       <c r="L52" s="1">
         <v>0</v>
       </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="10"/>
+      <c r="M52" s="5"/>
+      <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2">
@@ -32400,9 +32661,8 @@
       <c r="L53" s="1">
         <v>0</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="10"/>
+      <c r="M53" s="5"/>
+      <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2">
@@ -32441,9 +32701,8 @@
       <c r="L54" s="1">
         <v>0</v>
       </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="10"/>
+      <c r="M54" s="5"/>
+      <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2">
@@ -32482,9 +32741,8 @@
       <c r="L55" s="1">
         <v>0</v>
       </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="10"/>
+      <c r="M55" s="5"/>
+      <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2">
@@ -32523,9 +32781,8 @@
       <c r="L56" s="1">
         <v>0</v>
       </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="10"/>
+      <c r="M56" s="5"/>
+      <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2">
@@ -32564,9 +32821,8 @@
       <c r="L57" s="1">
         <v>0</v>
       </c>
-      <c r="M57" s="8"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="10"/>
+      <c r="M57" s="5"/>
+      <c r="O57" s="6"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2">
@@ -32605,9 +32861,8 @@
       <c r="L58" s="1">
         <v>0</v>
       </c>
-      <c r="M58" s="8"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="10"/>
+      <c r="M58" s="5"/>
+      <c r="O58" s="6"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2">
@@ -32646,9 +32901,8 @@
       <c r="L59" s="1">
         <v>0</v>
       </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="10"/>
+      <c r="M59" s="5"/>
+      <c r="O59" s="6"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2">
@@ -32687,9 +32941,9 @@
       <c r="L60" s="1">
         <v>0</v>
       </c>
-      <c r="M60" s="11"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="13"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="9"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2">
@@ -32728,14 +32982,14 @@
       <c r="L61" s="1">
         <v>0</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="11">
         <f>CORREL(I2:I557,H2:H557)</f>
         <v>-1.672751734829735E-2</v>
       </c>
-      <c r="O61" s="10" t="s">
+      <c r="O61" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -32776,9 +33030,8 @@
       <c r="L62" s="1">
         <v>13.5</v>
       </c>
-      <c r="M62" s="8"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="10"/>
+      <c r="M62" s="5"/>
+      <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2">
@@ -32817,9 +33070,8 @@
       <c r="L63" s="1">
         <v>0</v>
       </c>
-      <c r="M63" s="8"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="10"/>
+      <c r="M63" s="5"/>
+      <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2">
@@ -32858,9 +33110,8 @@
       <c r="L64" s="1">
         <v>0</v>
       </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="10"/>
+      <c r="M64" s="5"/>
+      <c r="O64" s="6"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2">
@@ -32899,9 +33150,8 @@
       <c r="L65" s="1">
         <v>0</v>
       </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="10"/>
+      <c r="M65" s="5"/>
+      <c r="O65" s="6"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2">
@@ -32940,9 +33190,8 @@
       <c r="L66" s="1">
         <v>0</v>
       </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="10"/>
+      <c r="M66" s="5"/>
+      <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2">
@@ -32981,9 +33230,8 @@
       <c r="L67" s="1">
         <v>0</v>
       </c>
-      <c r="M67" s="8"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="10"/>
+      <c r="M67" s="5"/>
+      <c r="O67" s="6"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2">
@@ -33022,9 +33270,8 @@
       <c r="L68" s="1">
         <v>55</v>
       </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="10"/>
+      <c r="M68" s="5"/>
+      <c r="O68" s="6"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2">
@@ -33063,9 +33310,8 @@
       <c r="L69" s="1">
         <v>0</v>
       </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="10"/>
+      <c r="M69" s="5"/>
+      <c r="O69" s="6"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2">
@@ -33104,9 +33350,8 @@
       <c r="L70" s="1">
         <v>0</v>
       </c>
-      <c r="M70" s="8"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="10"/>
+      <c r="M70" s="5"/>
+      <c r="O70" s="6"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2">
@@ -33145,9 +33390,8 @@
       <c r="L71" s="1">
         <v>0</v>
       </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="10"/>
+      <c r="M71" s="5"/>
+      <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2">
@@ -33186,9 +33430,8 @@
       <c r="L72" s="1">
         <v>0</v>
       </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="10"/>
+      <c r="M72" s="5"/>
+      <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2">
@@ -33227,9 +33470,8 @@
       <c r="L73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="10"/>
+      <c r="M73" s="5"/>
+      <c r="O73" s="6"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2">
@@ -33268,9 +33510,8 @@
       <c r="L74" s="1">
         <v>0</v>
       </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="10"/>
+      <c r="M74" s="5"/>
+      <c r="O74" s="6"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2">
@@ -33309,9 +33550,8 @@
       <c r="L75" s="1">
         <v>0</v>
       </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="10"/>
+      <c r="M75" s="5"/>
+      <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2">
@@ -33350,14 +33590,14 @@
       <c r="L76" s="1">
         <v>0</v>
       </c>
-      <c r="M76" s="8" t="s">
+      <c r="M76" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="11">
         <f>CORREL(K2:K557,H2:H557)</f>
         <v>-3.5821611456593433E-2</v>
       </c>
-      <c r="O76" s="10" t="s">
+      <c r="O76" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -33398,9 +33638,8 @@
       <c r="L77" s="1">
         <v>0</v>
       </c>
-      <c r="M77" s="8"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="10"/>
+      <c r="M77" s="5"/>
+      <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2">
@@ -33439,9 +33678,8 @@
       <c r="L78" s="1">
         <v>0</v>
       </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="10"/>
+      <c r="M78" s="5"/>
+      <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2">
@@ -33480,9 +33718,8 @@
       <c r="L79" s="1">
         <v>0</v>
       </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="10"/>
+      <c r="M79" s="5"/>
+      <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2">
@@ -33521,9 +33758,8 @@
       <c r="L80" s="1">
         <v>121.5</v>
       </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="10"/>
+      <c r="M80" s="5"/>
+      <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2">
@@ -33562,9 +33798,8 @@
       <c r="L81" s="1">
         <v>36.75</v>
       </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="10"/>
+      <c r="M81" s="5"/>
+      <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2">
@@ -33603,9 +33838,8 @@
       <c r="L82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="8"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="10"/>
+      <c r="M82" s="5"/>
+      <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2">
@@ -33644,9 +33878,8 @@
       <c r="L83" s="1">
         <v>2</v>
       </c>
-      <c r="M83" s="8"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="10"/>
+      <c r="M83" s="5"/>
+      <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2">
@@ -33685,9 +33918,8 @@
       <c r="L84" s="1">
         <v>0</v>
       </c>
-      <c r="M84" s="8"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="10"/>
+      <c r="M84" s="5"/>
+      <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2">
@@ -33726,9 +33958,8 @@
       <c r="L85" s="1">
         <v>0</v>
       </c>
-      <c r="M85" s="8"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="10"/>
+      <c r="M85" s="5"/>
+      <c r="O85" s="6"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2">
@@ -33767,9 +33998,8 @@
       <c r="L86" s="1">
         <v>0</v>
       </c>
-      <c r="M86" s="8"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="10"/>
+      <c r="M86" s="5"/>
+      <c r="O86" s="6"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2">
@@ -33808,9 +34038,8 @@
       <c r="L87" s="1">
         <v>0</v>
       </c>
-      <c r="M87" s="8"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="10"/>
+      <c r="M87" s="5"/>
+      <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2">
@@ -33849,9 +34078,8 @@
       <c r="L88" s="1">
         <v>7</v>
       </c>
-      <c r="M88" s="8"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="10"/>
+      <c r="M88" s="5"/>
+      <c r="O88" s="6"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="2">
@@ -33890,9 +34118,8 @@
       <c r="L89" s="1">
         <v>6.5</v>
       </c>
-      <c r="M89" s="8"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="10"/>
+      <c r="M89" s="5"/>
+      <c r="O89" s="6"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2">
@@ -33931,9 +34158,8 @@
       <c r="L90" s="1">
         <v>0</v>
       </c>
-      <c r="M90" s="8"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="10"/>
+      <c r="M90" s="5"/>
+      <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2">
@@ -33972,14 +34198,14 @@
       <c r="L91" s="1">
         <v>0</v>
       </c>
-      <c r="M91" s="8" t="s">
+      <c r="M91" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N91" s="9">
+      <c r="N91" s="11">
         <f>CORREL(L2:L557,H2:H557)</f>
         <v>7.9078189509975087E-3</v>
       </c>
-      <c r="O91" s="10" t="s">
+      <c r="O91" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -34020,9 +34246,8 @@
       <c r="L92" s="1">
         <v>0</v>
       </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="10"/>
+      <c r="M92" s="5"/>
+      <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="2">
@@ -34061,9 +34286,8 @@
       <c r="L93" s="1">
         <v>0</v>
       </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="10"/>
+      <c r="M93" s="5"/>
+      <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2">
@@ -34102,9 +34326,8 @@
       <c r="L94" s="1">
         <v>0</v>
       </c>
-      <c r="M94" s="8"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="10"/>
+      <c r="M94" s="5"/>
+      <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2">
@@ -34143,9 +34366,8 @@
       <c r="L95" s="1">
         <v>0</v>
       </c>
-      <c r="M95" s="8"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="10"/>
+      <c r="M95" s="5"/>
+      <c r="O95" s="6"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2">
@@ -34184,9 +34406,8 @@
       <c r="L96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="8"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="10"/>
+      <c r="M96" s="5"/>
+      <c r="O96" s="6"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="2">
@@ -34225,9 +34446,8 @@
       <c r="L97" s="1">
         <v>22.5</v>
       </c>
-      <c r="M97" s="8"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="10"/>
+      <c r="M97" s="5"/>
+      <c r="O97" s="6"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2">
@@ -34266,9 +34486,8 @@
       <c r="L98" s="1">
         <v>14</v>
       </c>
-      <c r="M98" s="8"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="10"/>
+      <c r="M98" s="5"/>
+      <c r="O98" s="6"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2">
@@ -34307,9 +34526,8 @@
       <c r="L99" s="1">
         <v>0</v>
       </c>
-      <c r="M99" s="8"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="10"/>
+      <c r="M99" s="5"/>
+      <c r="O99" s="6"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2">
@@ -34348,9 +34566,8 @@
       <c r="L100" s="1">
         <v>0</v>
       </c>
-      <c r="M100" s="8"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="10"/>
+      <c r="M100" s="5"/>
+      <c r="O100" s="6"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="2">
@@ -34389,9 +34606,8 @@
       <c r="L101" s="1">
         <v>0</v>
       </c>
-      <c r="M101" s="8"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="10"/>
+      <c r="M101" s="5"/>
+      <c r="O101" s="6"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="2">
@@ -34430,9 +34646,8 @@
       <c r="L102" s="1">
         <v>0</v>
       </c>
-      <c r="M102" s="8"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="10"/>
+      <c r="M102" s="5"/>
+      <c r="O102" s="6"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2">
@@ -34471,9 +34686,8 @@
       <c r="L103" s="1">
         <v>26</v>
       </c>
-      <c r="M103" s="8"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="10"/>
+      <c r="M103" s="5"/>
+      <c r="O103" s="6"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2">
@@ -34512,9 +34726,8 @@
       <c r="L104" s="1">
         <v>0</v>
       </c>
-      <c r="M104" s="8"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="10"/>
+      <c r="M104" s="5"/>
+      <c r="O104" s="6"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2">
@@ -34553,9 +34766,9 @@
       <c r="L105" s="1">
         <v>0</v>
       </c>
-      <c r="M105" s="11"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="13"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="9"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2">

--- a/110_Analyses_Données/Ex_8.xlsx
+++ b/110_Analyses_Données/Ex_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\110_Analyses_Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF2A3C-11CA-4B5D-9A15-12126157048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7993119F-1EE7-461A-9829-5C2707096670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,20 +427,6 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
@@ -3828,20 +3814,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -30500,7 +30472,7 @@
   <dimension ref="A1:O557"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
